--- a/ExcelData/Data_Table/BuffsTabel.xlsx
+++ b/ExcelData/Data_Table/BuffsTabel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A149EE55-06F5-4771-ACCA-703C67B84AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA04351-721F-4ADA-A35E-126296CC3429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13785" yWindow="0" windowWidth="14955" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BossSkillTable" sheetId="16" r:id="rId1"/>
@@ -815,10 +815,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="P6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>

--- a/ExcelData/Data_Table/BuffsTabel.xlsx
+++ b/ExcelData/Data_Table/BuffsTabel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA04351-721F-4ADA-A35E-126296CC3429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2772A118-77A0-43E0-A509-C2C64713710C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6390" yWindow="5430" windowWidth="14715" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BossSkillTable" sheetId="16" r:id="rId1"/>
@@ -818,7 +818,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L6" s="17">
         <v>0</v>
